--- a/jra-leading-sire-chart/jra-sire-ranking.xlsx
+++ b/jra-leading-sire-chart/jra-sire-ranking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">ブラックタイド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モーリス</t>
   </si>
 </sst>
 </file>
@@ -176,17 +179,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.44"/>
@@ -200,8 +203,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,6 +266,9 @@
       <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -471,6 +478,9 @@
       <c r="S5" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="T5" s="0" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -530,6 +540,9 @@
       <c r="S6" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="T6" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -588,6 +601,9 @@
       </c>
       <c r="S7" s="0" t="n">
         <v>30</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
